--- a/cypress/downloads/order-invoice_anshika.xlsx
+++ b/cypress/downloads/order-invoice_anshika.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6664acbaae2afd4c0bf6f805</v>
+        <v>6674c8bdae2afd4c0b069818</v>
       </c>
       <c r="B2" t="str">
         <v>ADIDAS ORIGINAL</v>
